--- a/biology/Médecine/Retour_veineux_pulmonaire_anormal/Retour_veineux_pulmonaire_anormal.xlsx
+++ b/biology/Médecine/Retour_veineux_pulmonaire_anormal/Retour_veineux_pulmonaire_anormal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le retour veineux pulmonaire anormal désigne l'ensemble des malformations congénitales du cœur intéressant les anomalies de connexion des veines pulmonaires qui s'abouchent normalement dans l'oreillette gauche.
 Cette anomalie est en rapport avec une anomalie de connexion du plexus vasculaire pulmonaire et de la veine pulmonaire primitive.
@@ -515,16 +527,13 @@
           <t>Retour veineux pulmonaire anormal partiel</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On distingue :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>On distingue :
 le retour veineux pulmonaire anormal partiel gauche dans lequel les veines pulmonaires gauches s'abouchent dans une veine cave supérieure gauche ;
-le retour veineux pulmonaire anormal partiel droit dans lequel les veines pulmonaires droites s'abouchent soit dans la veine cave supérieure droite, dans l'oreillette droite ou dans la veine cave inférieure droite responsable du syndrome du cimeterre.
-Clinique
-Elle dépend directement de l'importance du territoire drainé et du shunt gauche droit obligatoire. C'est le plus souvent une découverte faite au cours d'une échographie cardiaque ou prescrite pour un souffle systolique.
-L'échographie fait le diagnostic en mettant en évidence une dilatation des cavités droites du cœur et les quatre veines pulmonaires ne se connectent pas toutes à l'oreillette gauche. Elle met en évidence aussi le collecteur  qui désigne le vaisseaux servant à la connexion des veines pulmonaires avec l'organe connecté.
-Le traitement est chirurgical s'il existe une symptomatologie.
-</t>
+le retour veineux pulmonaire anormal partiel droit dans lequel les veines pulmonaires droites s'abouchent soit dans la veine cave supérieure droite, dans l'oreillette droite ou dans la veine cave inférieure droite responsable du syndrome du cimeterre.</t>
         </is>
       </c>
     </row>
@@ -549,20 +558,131 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Retour veineux pulmonaire anormal partiel</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Clinique</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle dépend directement de l'importance du territoire drainé et du shunt gauche droit obligatoire. C'est le plus souvent une découverte faite au cours d'une échographie cardiaque ou prescrite pour un souffle systolique.
+L'échographie fait le diagnostic en mettant en évidence une dilatation des cavités droites du cœur et les quatre veines pulmonaires ne se connectent pas toutes à l'oreillette gauche. Elle met en évidence aussi le collecteur  qui désigne le vaisseaux servant à la connexion des veines pulmonaires avec l'organe connecté.
+Le traitement est chirurgical s'il existe une symptomatologie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Retour_veineux_pulmonaire_anormal</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Retour_veineux_pulmonaire_anormal</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Retour veineux pulmonaire anormal total</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les quatre veines pulmonaires se connectent soit :
 au-dessus du cœur : retour supracardiaque dans la veine cave supérieure ou le tronc veineux innominé ;
 au cœur dans l'oreillette droite ou dans le sinus coronaire ;
 sous le cœur : dans la veine cave inférieure.
 Les signes cliniques sont directement en rapport avec la perméabilité du collecteur. Si celui n'est pas perméable on parle de collecteur bloqué qui l'urgence chirurgicale cardiaque absolue.
-Retour veineux pulmonaire anormal total bloqué
-Le nouveau-né présente une insuffisance cardiaque très précoce avec cyanose. Les examens complémentaires montrent un gros cœur aux dépens des cavités droites et l'échographie ne permet pas de mettre en évidence une connexion des veines pulmonaires au niveau de l'oreillette gauche. Seule l'intervention chirurgicale permet d'éviter un décès.
-Retour veineux pulmonaire anormal total perméable
-L'existence d'une communication inter auriculaire permet la tolérance de cette anomalie pendant quelques mois à années.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Retour_veineux_pulmonaire_anormal</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Retour_veineux_pulmonaire_anormal</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Retour veineux pulmonaire anormal total</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Retour veineux pulmonaire anormal total bloqué</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nouveau-né présente une insuffisance cardiaque très précoce avec cyanose. Les examens complémentaires montrent un gros cœur aux dépens des cavités droites et l'échographie ne permet pas de mettre en évidence une connexion des veines pulmonaires au niveau de l'oreillette gauche. Seule l'intervention chirurgicale permet d'éviter un décès.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Retour_veineux_pulmonaire_anormal</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Retour_veineux_pulmonaire_anormal</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Retour veineux pulmonaire anormal total</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Retour veineux pulmonaire anormal total perméable</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'existence d'une communication inter auriculaire permet la tolérance de cette anomalie pendant quelques mois à années.
 Le nourrisson présente une insuffisance cardiaque en quelques semaines à quelques mois (cyanose discrète : dyspnée, sueurs, troubles digestifs, anorexie, retard staturopondéral). L'échographie fait le diagnostic.
 Le diagnostic est parfois fait au bout de quelques années  chez un enfant présentant une dyspnée à l'effort et un hippocratisme digital l'examen clinique. Il faut rechercher une hypertension artérielle pulmonaire.
 Enfin, c'est parfois chez un jeune adulte présentant une hypertension artérielle pulmonaire fixée ou syndrome d'Eisenmenger que cette anomalie est découverte.
@@ -570,31 +690,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Retour_veineux_pulmonaire_anormal</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Retour_veineux_pulmonaire_anormal</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
